--- a/Método de identificación/KFOLD/k-fold_RE_binaria_balanceo2arun9.xlsx
+++ b/Método de identificación/KFOLD/k-fold_RE_binaria_balanceo2arun9.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\KFOLD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -392,8 +397,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,11 +461,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,7 +515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,9 +547,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,6 +582,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -743,14 +758,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -793,31 +813,31 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.7261163032191069</v>
+        <v>0.72611630321910692</v>
       </c>
       <c r="E2">
-        <v>0.7759609258866002</v>
+        <v>0.77596092588660015</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2">
-        <v>0.7261163032191069</v>
+        <v>0.72611630321910692</v>
       </c>
       <c r="H2">
-        <v>0.6536672629695885</v>
+        <v>0.65366726296958855</v>
       </c>
       <c r="I2">
-        <v>0.9545454545454546</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="J2">
-        <v>0.500515995872033</v>
+        <v>0.50051599587203299</v>
       </c>
       <c r="K2">
-        <v>0.7275307252087438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.72753072520874384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -828,31 +848,31 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.7520768431983386</v>
+        <v>0.75207684319833856</v>
       </c>
       <c r="E3">
-        <v>0.7927067505969179</v>
+        <v>0.79270675059691786</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3">
-        <v>0.7520768431983386</v>
+        <v>0.75207684319833856</v>
       </c>
       <c r="H3">
-        <v>0.6841513675533908</v>
+        <v>0.68415136755339079</v>
       </c>
       <c r="I3">
-        <v>0.9422084623323014</v>
+        <v>0.94220846233230138</v>
       </c>
       <c r="J3">
-        <v>0.5595611285266457</v>
+        <v>0.55956112852664575</v>
       </c>
       <c r="K3">
-        <v>0.7508847954294736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.75088479542947362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -863,31 +883,31 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.7653167185877466</v>
+        <v>0.76531671858774664</v>
       </c>
       <c r="E4">
-        <v>0.8039895923677364</v>
+        <v>0.80398959236773637</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
-        <v>0.7653167185877466</v>
+        <v>0.76531671858774664</v>
       </c>
       <c r="H4">
-        <v>0.7001510574018127</v>
+        <v>0.70015105740181272</v>
       </c>
       <c r="I4">
-        <v>0.9439918533604889</v>
+        <v>0.94399185336048885</v>
       </c>
       <c r="J4">
-        <v>0.5794491525423728</v>
+        <v>0.57944915254237284</v>
       </c>
       <c r="K4">
         <v>0.7617205029514309</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -898,31 +918,31 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.7601246105919003</v>
+        <v>0.76012461059190028</v>
       </c>
       <c r="E5">
-        <v>0.7915162454873645</v>
+        <v>0.79151624548736454</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5">
-        <v>0.7601246105919003</v>
+        <v>0.76012461059190028</v>
       </c>
       <c r="H5">
         <v>0.6830218068535826</v>
       </c>
       <c r="I5">
-        <v>0.9409871244635193</v>
+        <v>0.94098712446351929</v>
       </c>
       <c r="J5">
         <v>0.5905432595573441</v>
       </c>
       <c r="K5">
-        <v>0.7657651920104317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.76576519201043169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -933,31 +953,31 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.7829698857736241</v>
+        <v>0.78296988577362414</v>
       </c>
       <c r="E6">
-        <v>0.8118811881188119</v>
+        <v>0.81188118811881194</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6">
-        <v>0.7829698857736241</v>
+        <v>0.78296988577362414</v>
       </c>
       <c r="H6">
-        <v>0.7136075949367089</v>
+        <v>0.71360759493670889</v>
       </c>
       <c r="I6">
-        <v>0.9415448851774531</v>
+        <v>0.94154488517745305</v>
       </c>
       <c r="J6">
-        <v>0.6260330578512396</v>
+        <v>0.62603305785123964</v>
       </c>
       <c r="K6">
-        <v>0.7837889715143462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.78378897151434623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -968,31 +988,31 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.7663551401869159</v>
+        <v>0.76635514018691586</v>
       </c>
       <c r="E7">
-        <v>0.8014121800529567</v>
+        <v>0.80141218005295667</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7">
-        <v>0.7663551401869159</v>
+        <v>0.76635514018691586</v>
       </c>
       <c r="H7">
-        <v>0.7060653188180405</v>
+        <v>0.70606531881804047</v>
       </c>
       <c r="I7">
-        <v>0.926530612244898</v>
+        <v>0.92653061224489797</v>
       </c>
       <c r="J7">
-        <v>0.6004228329809725</v>
+        <v>0.60042283298097254</v>
       </c>
       <c r="K7">
         <v>0.7634767226129352</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1003,22 +1023,22 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.7632398753894081</v>
+        <v>0.76323987538940807</v>
       </c>
       <c r="E8">
-        <v>0.8003502626970228</v>
+        <v>0.80035026269702281</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8">
-        <v>0.7632398753894081</v>
+        <v>0.76323987538940807</v>
       </c>
       <c r="H8">
-        <v>0.6998468606431854</v>
+        <v>0.69984686064318535</v>
       </c>
       <c r="I8">
-        <v>0.934560327198364</v>
+        <v>0.93456032719836402</v>
       </c>
       <c r="J8">
         <v>0.5864978902953587</v>
@@ -1027,7 +1047,7 @@
         <v>0.7605291087468613</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1038,31 +1058,31 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.7829698857736241</v>
+        <v>0.78296988577362414</v>
       </c>
       <c r="E9">
-        <v>0.8165057067603161</v>
+        <v>0.81650570676031609</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9">
-        <v>0.7829698857736241</v>
+        <v>0.78296988577362414</v>
       </c>
       <c r="H9">
         <v>0.7198142414860681</v>
       </c>
       <c r="I9">
-        <v>0.9432048681541582</v>
+        <v>0.94320486815415816</v>
       </c>
       <c r="J9">
-        <v>0.6148936170212767</v>
+        <v>0.61489361702127665</v>
       </c>
       <c r="K9">
-        <v>0.7790492425877173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.77904924258771735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1076,7 +1096,7 @@
         <v>0.77466251298027</v>
       </c>
       <c r="E10">
-        <v>0.7947019867549668</v>
+        <v>0.79470198675496684</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1085,19 +1105,19 @@
         <v>0.77466251298027</v>
       </c>
       <c r="H10">
-        <v>0.6873977086743044</v>
+        <v>0.68739770867430439</v>
       </c>
       <c r="I10">
-        <v>0.9417040358744395</v>
+        <v>0.94170403587443952</v>
       </c>
       <c r="J10">
-        <v>0.6305609284332688</v>
+        <v>0.63056092843326883</v>
       </c>
       <c r="K10">
-        <v>0.7861324821538542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.78613248215385423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1108,31 +1128,31 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.7736240913811008</v>
+        <v>0.77362409138110078</v>
       </c>
       <c r="E11">
-        <v>0.8063943161634103</v>
+        <v>0.80639431616341029</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11">
-        <v>0.7736240913811008</v>
+        <v>0.77362409138110078</v>
       </c>
       <c r="H11">
-        <v>0.709375</v>
+        <v>0.70937499999999998</v>
       </c>
       <c r="I11">
-        <v>0.934156378600823</v>
+        <v>0.93415637860082301</v>
       </c>
       <c r="J11">
-        <v>0.610062893081761</v>
+        <v>0.61006289308176098</v>
       </c>
       <c r="K11">
         <v>0.772109635841292</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1143,31 +1163,31 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>0.7840083073727934</v>
+        <v>0.78400830737279337</v>
       </c>
       <c r="E12">
-        <v>0.805607476635514</v>
+        <v>0.80560747663551402</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12">
-        <v>0.7840083073727934</v>
+        <v>0.78400830737279337</v>
       </c>
       <c r="H12">
-        <v>0.714759535655058</v>
+        <v>0.71475953565505801</v>
       </c>
       <c r="I12">
-        <v>0.9229122055674518</v>
+        <v>0.92291220556745179</v>
       </c>
       <c r="J12">
-        <v>0.6532258064516129</v>
+        <v>0.65322580645161288</v>
       </c>
       <c r="K12">
-        <v>0.7880690060095323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.78806900600953234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1178,31 +1198,31 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0.7871235721703012</v>
+        <v>0.78712357217030116</v>
       </c>
       <c r="E13">
-        <v>0.8193832599118943</v>
+        <v>0.81938325991189431</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>0.7871235721703012</v>
+        <v>0.78712357217030116</v>
       </c>
       <c r="H13">
-        <v>0.7220496894409938</v>
+        <v>0.72204968944099379</v>
       </c>
       <c r="I13">
-        <v>0.9470468431771895</v>
+        <v>0.94704684317718946</v>
       </c>
       <c r="J13">
-        <v>0.6207627118644068</v>
+        <v>0.62076271186440679</v>
       </c>
       <c r="K13">
-        <v>0.7839047775207981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>0.78390477752079812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1216,7 +1236,7 @@
         <v>0.77466251298027</v>
       </c>
       <c r="E14">
-        <v>0.8036199095022625</v>
+        <v>0.80361990950226247</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1225,19 +1245,19 @@
         <v>0.77466251298027</v>
       </c>
       <c r="H14">
-        <v>0.7092651757188498</v>
+        <v>0.70926517571884984</v>
       </c>
       <c r="I14">
-        <v>0.9269311064718163</v>
+        <v>0.92693110647181631</v>
       </c>
       <c r="J14">
-        <v>0.6239669421487604</v>
+        <v>0.62396694214876036</v>
       </c>
       <c r="K14">
         <v>0.7754490243102885</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1251,7 +1271,7 @@
         <v>0.7954309449636553</v>
       </c>
       <c r="E15">
-        <v>0.8248888888888889</v>
+        <v>0.82488888888888889</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -1260,19 +1280,19 @@
         <v>0.7954309449636553</v>
       </c>
       <c r="H15">
-        <v>0.7435897435897436</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="I15">
-        <v>0.9261477045908184</v>
+        <v>0.92614770459081841</v>
       </c>
       <c r="J15">
-        <v>0.6536796536796536</v>
+        <v>0.65367965367965364</v>
       </c>
       <c r="K15">
-        <v>0.789913679135236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0.78991367913523602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1283,31 +1303,31 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>0.7717250324254216</v>
+        <v>0.77172503242542156</v>
       </c>
       <c r="E16">
-        <v>0.8061674008810573</v>
+        <v>0.80616740088105732</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
       <c r="G16">
-        <v>0.7717250324254216</v>
+        <v>0.77172503242542156</v>
       </c>
       <c r="H16">
-        <v>0.7106796116504854</v>
+        <v>0.71067961165048543</v>
       </c>
       <c r="I16">
-        <v>0.9312977099236641</v>
+        <v>0.93129770992366412</v>
       </c>
       <c r="J16">
-        <v>0.6058201058201058</v>
+        <v>0.60582010582010581</v>
       </c>
       <c r="K16">
-        <v>0.7685589078718851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.76855890787188508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1321,7 +1341,7 @@
         <v>0.7665369649805448</v>
       </c>
       <c r="E17">
-        <v>0.8004434589800444</v>
+        <v>0.80044345898004443</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -1330,19 +1350,19 @@
         <v>0.7665369649805448</v>
       </c>
       <c r="H17">
-        <v>0.696911196911197</v>
+        <v>0.69691119691119696</v>
       </c>
       <c r="I17">
-        <v>0.9401041666666666</v>
+        <v>0.94010416666666663</v>
       </c>
       <c r="J17">
-        <v>0.5943152454780362</v>
+        <v>0.59431524547803616</v>
       </c>
       <c r="K17">
-        <v>0.7672097060723513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0.76720970607235128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1353,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0.7885862516212711</v>
+        <v>0.78858625162127105</v>
       </c>
       <c r="E18">
         <v>0.8149829738933031</v>
@@ -1362,22 +1382,22 @@
         <v>27</v>
       </c>
       <c r="G18">
-        <v>0.7885862516212711</v>
+        <v>0.78858625162127105</v>
       </c>
       <c r="H18">
-        <v>0.7137176938369781</v>
+        <v>0.71371769383697814</v>
       </c>
       <c r="I18">
-        <v>0.9497354497354498</v>
+        <v>0.94973544973544977</v>
       </c>
       <c r="J18">
-        <v>0.6335877862595419</v>
+        <v>0.63358778625954193</v>
       </c>
       <c r="K18">
         <v>0.7916616179974959</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1388,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>0.7704280155642024</v>
+        <v>0.77042801556420237</v>
       </c>
       <c r="E19">
         <v>0.7939464493597207</v>
@@ -1397,22 +1417,22 @@
         <v>28</v>
       </c>
       <c r="G19">
-        <v>0.7704280155642024</v>
+        <v>0.77042801556420237</v>
       </c>
       <c r="H19">
-        <v>0.6973415132924335</v>
+        <v>0.69734151329243355</v>
       </c>
       <c r="I19">
-        <v>0.9216216216216216</v>
+        <v>0.92162162162162165</v>
       </c>
       <c r="J19">
-        <v>0.6309226932668329</v>
+        <v>0.63092269326683292</v>
       </c>
       <c r="K19">
         <v>0.7762721574442274</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1423,31 +1443,31 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>0.7870129870129871</v>
+        <v>0.78701298701298705</v>
       </c>
       <c r="E20">
-        <v>0.8177777777777778</v>
+        <v>0.81777777777777783</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
       <c r="G20">
-        <v>0.7870129870129871</v>
+        <v>0.78701298701298705</v>
       </c>
       <c r="H20">
-        <v>0.7229862475442044</v>
+        <v>0.72298624754420437</v>
       </c>
       <c r="I20">
-        <v>0.9411764705882353</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="J20">
-        <v>0.6279683377308707</v>
+        <v>0.62796833773087068</v>
       </c>
       <c r="K20">
-        <v>0.784572404159553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0.78457240415955298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1458,31 +1478,31 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>0.8090909090909091</v>
+        <v>0.80909090909090908</v>
       </c>
       <c r="E21">
-        <v>0.830057803468208</v>
+        <v>0.83005780346820801</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
       <c r="G21">
-        <v>0.8090909090909091</v>
+        <v>0.80909090909090908</v>
       </c>
       <c r="H21">
-        <v>0.7494780793319415</v>
+        <v>0.74947807933194155</v>
       </c>
       <c r="I21">
-        <v>0.9300518134715026</v>
+        <v>0.93005181347150256</v>
       </c>
       <c r="J21">
         <v>0.6875</v>
       </c>
       <c r="K21">
-        <v>0.8087759067357513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0.80877590673575128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,31 +1513,31 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>0.7623376623376623</v>
+        <v>0.76233766233766231</v>
       </c>
       <c r="E22">
-        <v>0.7932203389830509</v>
+        <v>0.79322033898305089</v>
       </c>
       <c r="F22" t="s">
         <v>31</v>
       </c>
       <c r="G22">
-        <v>0.7623376623376623</v>
+        <v>0.76233766233766231</v>
       </c>
       <c r="H22">
-        <v>0.6895874263261297</v>
+        <v>0.68958742632612968</v>
       </c>
       <c r="I22">
-        <v>0.9335106382978723</v>
+        <v>0.93351063829787229</v>
       </c>
       <c r="J22">
-        <v>0.5989847715736041</v>
+        <v>0.59898477157360408</v>
       </c>
       <c r="K22">
-        <v>0.7662477049357382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0.76624770493573824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1528,31 +1548,31 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>0.8012987012987013</v>
+        <v>0.80129870129870129</v>
       </c>
       <c r="E23">
-        <v>0.825938566552901</v>
+        <v>0.82593856655290099</v>
       </c>
       <c r="F23" t="s">
         <v>32</v>
       </c>
       <c r="G23">
-        <v>0.8012987012987013</v>
+        <v>0.80129870129870129</v>
       </c>
       <c r="H23">
-        <v>0.7348178137651822</v>
+        <v>0.73481781376518218</v>
       </c>
       <c r="I23">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="J23">
-        <v>0.6597402597402597</v>
+        <v>0.65974025974025974</v>
       </c>
       <c r="K23">
-        <v>0.8012987012987013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0.80129870129870129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1563,31 +1583,31 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>0.7753246753246753</v>
+        <v>0.77532467532467531</v>
       </c>
       <c r="E24">
-        <v>0.8088397790055248</v>
+        <v>0.80883977900552484</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
       </c>
       <c r="G24">
-        <v>0.7753246753246753</v>
+        <v>0.77532467532467531</v>
       </c>
       <c r="H24">
-        <v>0.7204724409448819</v>
+        <v>0.72047244094488194</v>
       </c>
       <c r="I24">
-        <v>0.9219143576826196</v>
+        <v>0.92191435768261965</v>
       </c>
       <c r="J24">
-        <v>0.6193029490616622</v>
+        <v>0.61930294906166217</v>
       </c>
       <c r="K24">
-        <v>0.7706086533721408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.77060865337214079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1601,7 +1621,7 @@
         <v>0.7883116883116883</v>
       </c>
       <c r="E25">
-        <v>0.815819209039548</v>
+        <v>0.81581920903954797</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -1610,19 +1630,19 @@
         <v>0.7883116883116883</v>
       </c>
       <c r="H25">
-        <v>0.7322515212981744</v>
+        <v>0.73225152129817439</v>
       </c>
       <c r="I25">
-        <v>0.9209183673469388</v>
+        <v>0.92091836734693877</v>
       </c>
       <c r="J25">
-        <v>0.6507936507936508</v>
+        <v>0.65079365079365081</v>
       </c>
       <c r="K25">
-        <v>0.7858560090702947</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0.78585600907029474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1633,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>0.7510373443983402</v>
+        <v>0.75103734439834025</v>
       </c>
       <c r="E26">
         <v>0.7857142857142857</v>
@@ -1642,22 +1662,22 @@
         <v>35</v>
       </c>
       <c r="G26">
-        <v>0.7510373443983402</v>
+        <v>0.75103734439834025</v>
       </c>
       <c r="H26">
         <v>0.6875</v>
       </c>
       <c r="I26">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="J26">
-        <v>0.5867768595041323</v>
+        <v>0.58677685950413228</v>
       </c>
       <c r="K26">
         <v>0.7517217630853994</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1668,31 +1688,31 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>0.7800829875518672</v>
+        <v>0.78008298755186722</v>
       </c>
       <c r="E27">
-        <v>0.8166089965397924</v>
+        <v>0.81660899653979235</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
       </c>
       <c r="G27">
-        <v>0.7800829875518672</v>
+        <v>0.78008298755186722</v>
       </c>
       <c r="H27">
-        <v>0.7195121951219512</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="I27">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="J27">
-        <v>0.603448275862069</v>
+        <v>0.60344827586206895</v>
       </c>
       <c r="K27">
-        <v>0.7737241379310345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0.77372413793103445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1703,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>0.7593360995850622</v>
+        <v>0.75933609958506221</v>
       </c>
       <c r="E28">
         <v>0.795053003533569</v>
@@ -1712,10 +1732,10 @@
         <v>37</v>
       </c>
       <c r="G28">
-        <v>0.7593360995850622</v>
+        <v>0.75933609958506221</v>
       </c>
       <c r="H28">
-        <v>0.6901840490797546</v>
+        <v>0.69018404907975461</v>
       </c>
       <c r="I28">
         <v>0.9375</v>
@@ -1724,10 +1744,10 @@
         <v>0.5826446280991735</v>
       </c>
       <c r="K28">
-        <v>0.7600723140495866</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0.76007231404958664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1738,31 +1758,31 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>0.8195020746887967</v>
+        <v>0.81950207468879666</v>
       </c>
       <c r="E29">
-        <v>0.8460176991150443</v>
+        <v>0.84601769911504432</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
       </c>
       <c r="G29">
-        <v>0.8195020746887967</v>
+        <v>0.81950207468879666</v>
       </c>
       <c r="H29">
-        <v>0.7660256410256411</v>
+        <v>0.76602564102564108</v>
       </c>
       <c r="I29">
-        <v>0.9446640316205533</v>
+        <v>0.94466403162055335</v>
       </c>
       <c r="J29">
-        <v>0.6812227074235808</v>
+        <v>0.68122270742358082</v>
       </c>
       <c r="K29">
-        <v>0.8129433695220671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0.81294336952206714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1773,31 +1793,31 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>0.7676348547717843</v>
+        <v>0.76763485477178428</v>
       </c>
       <c r="E30">
-        <v>0.787878787878788</v>
+        <v>0.78787878787878796</v>
       </c>
       <c r="F30" t="s">
         <v>39</v>
       </c>
       <c r="G30">
-        <v>0.7676348547717843</v>
+        <v>0.76763485477178428</v>
       </c>
       <c r="H30">
-        <v>0.6709677419354839</v>
+        <v>0.67096774193548392</v>
       </c>
       <c r="I30">
-        <v>0.9541284403669725</v>
+        <v>0.95412844036697253</v>
       </c>
       <c r="J30">
-        <v>0.6136363636363636</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="K30">
-        <v>0.783882402001668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.78388240200166803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1808,31 +1828,31 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>0.8008298755186722</v>
+        <v>0.80082987551867224</v>
       </c>
       <c r="E31">
-        <v>0.816793893129771</v>
+        <v>0.81679389312977102</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
       </c>
       <c r="G31">
-        <v>0.8008298755186722</v>
+        <v>0.80082987551867224</v>
       </c>
       <c r="H31">
-        <v>0.7254237288135593</v>
+        <v>0.72542372881355932</v>
       </c>
       <c r="I31">
-        <v>0.9344978165938864</v>
+        <v>0.93449781659388642</v>
       </c>
       <c r="J31">
-        <v>0.6798418972332015</v>
+        <v>0.67984189723320154</v>
       </c>
       <c r="K31">
-        <v>0.807169856913544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0.80716985691354404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1843,31 +1863,31 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>0.7676348547717843</v>
+        <v>0.76763485477178428</v>
       </c>
       <c r="E32">
-        <v>0.8021201413427561</v>
+        <v>0.80212014134275611</v>
       </c>
       <c r="F32" t="s">
         <v>41</v>
       </c>
       <c r="G32">
-        <v>0.7676348547717843</v>
+        <v>0.76763485477178428</v>
       </c>
       <c r="H32">
-        <v>0.709375</v>
+        <v>0.70937499999999998</v>
       </c>
       <c r="I32">
-        <v>0.9227642276422764</v>
+        <v>0.92276422764227639</v>
       </c>
       <c r="J32">
-        <v>0.6059322033898306</v>
+        <v>0.60593220338983056</v>
       </c>
       <c r="K32">
-        <v>0.7643482155160535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.76434821551605348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1878,31 +1898,31 @@
         <v>10</v>
       </c>
       <c r="D33">
-        <v>0.7925311203319502</v>
+        <v>0.79253112033195017</v>
       </c>
       <c r="E33">
-        <v>0.8194945848375451</v>
+        <v>0.81949458483754511</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
       </c>
       <c r="G33">
-        <v>0.7925311203319502</v>
+        <v>0.79253112033195017</v>
       </c>
       <c r="H33">
-        <v>0.7252396166134185</v>
+        <v>0.72523961661341851</v>
       </c>
       <c r="I33">
-        <v>0.941908713692946</v>
+        <v>0.94190871369294604</v>
       </c>
       <c r="J33">
         <v>0.6431535269709544</v>
       </c>
       <c r="K33">
-        <v>0.7925311203319502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.79253112033195017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1913,31 +1933,31 @@
         <v>10</v>
       </c>
       <c r="D34">
-        <v>0.8253638253638254</v>
+        <v>0.82536382536382535</v>
       </c>
       <c r="E34">
-        <v>0.8396946564885496</v>
+        <v>0.83969465648854957</v>
       </c>
       <c r="F34" t="s">
         <v>43</v>
       </c>
       <c r="G34">
-        <v>0.8253638253638254</v>
+        <v>0.82536382536382535</v>
       </c>
       <c r="H34">
-        <v>0.7560137457044673</v>
+        <v>0.75601374570446733</v>
       </c>
       <c r="I34">
-        <v>0.944206008583691</v>
+        <v>0.94420600858369097</v>
       </c>
       <c r="J34">
-        <v>0.7137096774193549</v>
+        <v>0.71370967741935487</v>
       </c>
       <c r="K34">
-        <v>0.8289578430015229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.82895784300152286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1948,31 +1968,31 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>0.7650727650727651</v>
+        <v>0.76507276507276512</v>
       </c>
       <c r="E35">
-        <v>0.7871939736346517</v>
+        <v>0.78719397363465171</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
       </c>
       <c r="G35">
-        <v>0.7650727650727651</v>
+        <v>0.76507276507276512</v>
       </c>
       <c r="H35">
-        <v>0.7013422818791947</v>
+        <v>0.70134228187919467</v>
       </c>
       <c r="I35">
-        <v>0.8969957081545065</v>
+        <v>0.89699570815450647</v>
       </c>
       <c r="J35">
         <v>0.6411290322580645</v>
       </c>
       <c r="K35">
-        <v>0.7690623702062855</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.76906237020628554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1983,31 +2003,31 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>0.7900207900207901</v>
+        <v>0.79002079002079006</v>
       </c>
       <c r="E36">
-        <v>0.8237347294938918</v>
+        <v>0.82373472949389182</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
       </c>
       <c r="G36">
-        <v>0.7900207900207901</v>
+        <v>0.79002079002079006</v>
       </c>
       <c r="H36">
-        <v>0.7283950617283951</v>
+        <v>0.72839506172839508</v>
       </c>
       <c r="I36">
-        <v>0.9477911646586346</v>
+        <v>0.94779116465863456</v>
       </c>
       <c r="J36">
-        <v>0.6206896551724138</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="K36">
-        <v>0.7842404099155242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.78424040991552424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2018,31 +2038,31 @@
         <v>10</v>
       </c>
       <c r="D37">
-        <v>0.7920997920997921</v>
+        <v>0.79209979209979209</v>
       </c>
       <c r="E37">
-        <v>0.8194945848375451</v>
+        <v>0.81949458483754511</v>
       </c>
       <c r="F37" t="s">
         <v>46</v>
       </c>
       <c r="G37">
-        <v>0.7920997920997921</v>
+        <v>0.79209979209979209</v>
       </c>
       <c r="H37">
-        <v>0.7252396166134185</v>
+        <v>0.72523961661341851</v>
       </c>
       <c r="I37">
-        <v>0.941908713692946</v>
+        <v>0.94190871369294604</v>
       </c>
       <c r="J37">
-        <v>0.6416666666666667</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="K37">
-        <v>0.7917876901798062</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.79178769017980621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2053,31 +2073,31 @@
         <v>10</v>
       </c>
       <c r="D38">
-        <v>0.8087318087318087</v>
+        <v>0.80873180873180872</v>
       </c>
       <c r="E38">
-        <v>0.8368794326241136</v>
+        <v>0.83687943262411357</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
       <c r="G38">
-        <v>0.8087318087318087</v>
+        <v>0.80873180873180872</v>
       </c>
       <c r="H38">
-        <v>0.7492063492063492</v>
+        <v>0.74920634920634921</v>
       </c>
       <c r="I38">
-        <v>0.9477911646586346</v>
+        <v>0.94779116465863456</v>
       </c>
       <c r="J38">
-        <v>0.6594827586206896</v>
+        <v>0.65948275862068961</v>
       </c>
       <c r="K38">
-        <v>0.8036369616396621</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0.80363696163966214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2088,31 +2108,31 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>0.738045738045738</v>
+        <v>0.73804573804573803</v>
       </c>
       <c r="E39">
-        <v>0.7640449438202248</v>
+        <v>0.76404494382022481</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
       </c>
       <c r="G39">
-        <v>0.738045738045738</v>
+        <v>0.73804573804573803</v>
       </c>
       <c r="H39">
-        <v>0.6688524590163935</v>
+        <v>0.66885245901639345</v>
       </c>
       <c r="I39">
-        <v>0.8908296943231441</v>
+        <v>0.89082969432314407</v>
       </c>
       <c r="J39">
-        <v>0.5992063492063492</v>
+        <v>0.59920634920634919</v>
       </c>
       <c r="K39">
-        <v>0.7450180217647466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.74501802176474663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2123,31 +2143,31 @@
         <v>10</v>
       </c>
       <c r="D40">
-        <v>0.7879417879417879</v>
+        <v>0.78794178794178793</v>
       </c>
       <c r="E40">
-        <v>0.8191489361702129</v>
+        <v>0.81914893617021289</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
       </c>
       <c r="G40">
-        <v>0.7879417879417879</v>
+        <v>0.78794178794178793</v>
       </c>
       <c r="H40">
-        <v>0.7403846153846154</v>
+        <v>0.74038461538461542</v>
       </c>
       <c r="I40">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="J40">
-        <v>0.6462882096069869</v>
+        <v>0.64628820960698685</v>
       </c>
       <c r="K40">
-        <v>0.7814774381368267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0.78147743813682669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2158,31 +2178,31 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <v>0.8087318087318087</v>
+        <v>0.80873180873180872</v>
       </c>
       <c r="E41">
-        <v>0.8351254480286738</v>
+        <v>0.83512544802867383</v>
       </c>
       <c r="F41" t="s">
         <v>50</v>
       </c>
       <c r="G41">
-        <v>0.8087318087318087</v>
+        <v>0.80873180873180872</v>
       </c>
       <c r="H41">
-        <v>0.7540453074433657</v>
+        <v>0.75404530744336573</v>
       </c>
       <c r="I41">
-        <v>0.9357429718875502</v>
+        <v>0.93574297188755018</v>
       </c>
       <c r="J41">
-        <v>0.6724137931034483</v>
+        <v>0.67241379310344829</v>
       </c>
       <c r="K41">
-        <v>0.8040783824954993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0.80407838249549934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2196,7 +2216,7 @@
         <v>0.7590673575129534</v>
       </c>
       <c r="E42">
-        <v>0.7881548974943053</v>
+        <v>0.78815489749430534</v>
       </c>
       <c r="F42" t="s">
         <v>51</v>
@@ -2205,19 +2225,19 @@
         <v>0.7590673575129534</v>
       </c>
       <c r="H42">
-        <v>0.6892430278884463</v>
+        <v>0.68924302788844627</v>
       </c>
       <c r="I42">
-        <v>0.9202127659574468</v>
+        <v>0.92021276595744683</v>
       </c>
       <c r="J42">
-        <v>0.6060606060606061</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="K42">
         <v>0.7631366860090264</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2228,31 +2248,31 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>0.7797927461139896</v>
+        <v>0.77979274611398963</v>
       </c>
       <c r="E43">
-        <v>0.8195329087048833</v>
+        <v>0.81953290870488327</v>
       </c>
       <c r="F43" t="s">
         <v>52</v>
       </c>
       <c r="G43">
-        <v>0.7797927461139896</v>
+        <v>0.77979274611398963</v>
       </c>
       <c r="H43">
-        <v>0.7255639097744361</v>
+        <v>0.72556390977443608</v>
       </c>
       <c r="I43">
-        <v>0.9414634146341463</v>
+        <v>0.94146341463414629</v>
       </c>
       <c r="J43">
-        <v>0.5966850828729282</v>
+        <v>0.59668508287292821</v>
       </c>
       <c r="K43">
-        <v>0.7690742487535372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>0.76907424875353725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2263,31 +2283,31 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>0.7564766839378239</v>
+        <v>0.75647668393782386</v>
       </c>
       <c r="E44">
-        <v>0.7956521739130434</v>
+        <v>0.79565217391304344</v>
       </c>
       <c r="F44" t="s">
         <v>53</v>
       </c>
       <c r="G44">
-        <v>0.7564766839378239</v>
+        <v>0.75647668393782386</v>
       </c>
       <c r="H44">
-        <v>0.690566037735849</v>
+        <v>0.69056603773584901</v>
       </c>
       <c r="I44">
-        <v>0.9384615384615385</v>
+        <v>0.93846153846153846</v>
       </c>
       <c r="J44">
         <v>0.5706806282722513</v>
       </c>
       <c r="K44">
-        <v>0.7545710833668948</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0.75457108336689482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2298,31 +2318,31 @@
         <v>10</v>
       </c>
       <c r="D45">
-        <v>0.7797927461139896</v>
+        <v>0.77979274611398963</v>
       </c>
       <c r="E45">
-        <v>0.8072562358276645</v>
+        <v>0.80725623582766448</v>
       </c>
       <c r="F45" t="s">
         <v>54</v>
       </c>
       <c r="G45">
-        <v>0.7797927461139896</v>
+        <v>0.77979274611398963</v>
       </c>
       <c r="H45">
-        <v>0.7091633466135459</v>
+        <v>0.70916334661354585</v>
       </c>
       <c r="I45">
-        <v>0.9368421052631579</v>
+        <v>0.93684210526315792</v>
       </c>
       <c r="J45">
-        <v>0.6275510204081632</v>
+        <v>0.62755102040816324</v>
       </c>
       <c r="K45">
-        <v>0.7821965628356605</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.78219656283566052</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2333,31 +2353,31 @@
         <v>10</v>
       </c>
       <c r="D46">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="E46">
-        <v>0.8471615720524017</v>
+        <v>0.84716157205240172</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
       </c>
       <c r="G46">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="H46">
-        <v>0.766798418972332</v>
+        <v>0.76679841897233203</v>
       </c>
       <c r="I46">
         <v>0.9463414634146341</v>
       </c>
       <c r="J46">
-        <v>0.6722222222222223</v>
+        <v>0.67222222222222228</v>
       </c>
       <c r="K46">
-        <v>0.8092818428184282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>0.80928184281842819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2368,31 +2388,31 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>0.7740259740259741</v>
+        <v>0.77402597402597406</v>
       </c>
       <c r="E47">
-        <v>0.7933491686460806</v>
+        <v>0.79334916864608063</v>
       </c>
       <c r="F47" t="s">
         <v>56</v>
       </c>
       <c r="G47">
-        <v>0.7740259740259741</v>
+        <v>0.77402597402597406</v>
       </c>
       <c r="H47">
-        <v>0.6733870967741935</v>
+        <v>0.67338709677419351</v>
       </c>
       <c r="I47">
-        <v>0.9653179190751445</v>
+        <v>0.96531791907514453</v>
       </c>
       <c r="J47">
-        <v>0.6179245283018868</v>
+        <v>0.61792452830188682</v>
       </c>
       <c r="K47">
-        <v>0.7916212236885157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.79162122368851573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2403,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="D48">
-        <v>0.7662337662337663</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="E48">
         <v>0.7857142857142857</v>
@@ -2412,22 +2432,22 @@
         <v>57</v>
       </c>
       <c r="G48">
-        <v>0.7662337662337663</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="H48">
         <v>0.6875</v>
       </c>
       <c r="I48">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="J48">
-        <v>0.6341463414634146</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="K48">
-        <v>0.7754065040650406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>0.77540650406504064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2438,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="D49">
-        <v>0.7766233766233767</v>
+        <v>0.77662337662337666</v>
       </c>
       <c r="E49">
         <v>0.8018433179723502</v>
@@ -2447,22 +2467,22 @@
         <v>58</v>
       </c>
       <c r="G49">
-        <v>0.7766233766233767</v>
+        <v>0.77662337662337666</v>
       </c>
       <c r="H49">
-        <v>0.710204081632653</v>
+        <v>0.71020408163265303</v>
       </c>
       <c r="I49">
-        <v>0.9206349206349206</v>
+        <v>0.92063492063492058</v>
       </c>
       <c r="J49">
-        <v>0.6377551020408163</v>
+        <v>0.63775510204081631</v>
       </c>
       <c r="K49">
         <v>0.7791950113378685</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2473,31 +2493,31 @@
         <v>10</v>
       </c>
       <c r="D50">
-        <v>0.7818181818181819</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="E50">
-        <v>0.8073394495412844</v>
+        <v>0.80733944954128445</v>
       </c>
       <c r="F50" t="s">
         <v>59</v>
       </c>
       <c r="G50">
-        <v>0.7818181818181819</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="H50">
-        <v>0.7154471544715447</v>
+        <v>0.71544715447154472</v>
       </c>
       <c r="I50">
         <v>0.9263157894736842</v>
       </c>
       <c r="J50">
-        <v>0.6410256410256411</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="K50">
-        <v>0.7836707152496626</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>0.78367071524966259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2508,31 +2528,31 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <v>0.7948051948051948</v>
+        <v>0.79480519480519485</v>
       </c>
       <c r="E51">
-        <v>0.8278867102396515</v>
+        <v>0.82788671023965155</v>
       </c>
       <c r="F51" t="s">
         <v>60</v>
       </c>
       <c r="G51">
-        <v>0.7948051948051948</v>
+        <v>0.79480519480519485</v>
       </c>
       <c r="H51">
-        <v>0.7364341085271318</v>
+        <v>0.73643410852713176</v>
       </c>
       <c r="I51">
-        <v>0.945273631840796</v>
+        <v>0.94527363184079605</v>
       </c>
       <c r="J51">
-        <v>0.6304347826086957</v>
+        <v>0.63043478260869568</v>
       </c>
       <c r="K51">
-        <v>0.7878542072247459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>0.78785420722474586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2543,31 +2563,31 @@
         <v>10</v>
       </c>
       <c r="D52">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="E52">
-        <v>0.841346153846154</v>
+        <v>0.84134615384615397</v>
       </c>
       <c r="F52" t="s">
         <v>61</v>
       </c>
       <c r="G52">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="H52">
-        <v>0.7641921397379913</v>
+        <v>0.76419213973799127</v>
       </c>
       <c r="I52">
-        <v>0.9358288770053476</v>
+        <v>0.93582887700534756</v>
       </c>
       <c r="J52">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="K52">
-        <v>0.8315508021390374</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>0.83155080213903743</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2581,7 +2601,7 @@
         <v>0.8</v>
       </c>
       <c r="E53">
-        <v>0.8253968253968254</v>
+        <v>0.82539682539682535</v>
       </c>
       <c r="F53" t="s">
         <v>62</v>
@@ -2590,19 +2610,19 @@
         <v>0.8</v>
       </c>
       <c r="H53">
-        <v>0.7520661157024794</v>
+        <v>0.75206611570247939</v>
       </c>
       <c r="I53">
         <v>0.914572864321608</v>
       </c>
       <c r="J53">
-        <v>0.6774193548387096</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="K53">
-        <v>0.7959961095801589</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>0.79599610958015887</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2613,31 +2633,31 @@
         <v>10</v>
       </c>
       <c r="D54">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="E54">
-        <v>0.7713625866050808</v>
+        <v>0.77136258660508084</v>
       </c>
       <c r="F54" t="s">
         <v>63</v>
       </c>
       <c r="G54">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="H54">
-        <v>0.6653386454183267</v>
+        <v>0.66533864541832666</v>
       </c>
       <c r="I54">
-        <v>0.9175824175824175</v>
+        <v>0.91758241758241754</v>
       </c>
       <c r="J54">
-        <v>0.5862068965517241</v>
+        <v>0.58620689655172409</v>
       </c>
       <c r="K54">
-        <v>0.7518946570670708</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>0.75189465706707082</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2648,31 +2668,31 @@
         <v>10</v>
       </c>
       <c r="D55">
-        <v>0.7844155844155845</v>
+        <v>0.78441558441558445</v>
       </c>
       <c r="E55">
-        <v>0.8151447661469934</v>
+        <v>0.81514476614699338</v>
       </c>
       <c r="F55" t="s">
         <v>64</v>
       </c>
       <c r="G55">
-        <v>0.7844155844155845</v>
+        <v>0.78441558441558445</v>
       </c>
       <c r="H55">
-        <v>0.7176470588235294</v>
+        <v>0.71764705882352942</v>
       </c>
       <c r="I55">
-        <v>0.9432989690721649</v>
+        <v>0.94329896907216493</v>
       </c>
       <c r="J55">
-        <v>0.6230366492146597</v>
+        <v>0.62303664921465973</v>
       </c>
       <c r="K55">
-        <v>0.7831678091434124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>0.78316780914341244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2683,31 +2703,31 @@
         <v>10</v>
       </c>
       <c r="D56">
-        <v>0.8051948051948052</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="E56">
-        <v>0.8314606741573033</v>
+        <v>0.83146067415730329</v>
       </c>
       <c r="F56" t="s">
         <v>65</v>
       </c>
       <c r="G56">
-        <v>0.8051948051948052</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="H56">
         <v>0.74</v>
       </c>
       <c r="I56">
-        <v>0.9487179487179487</v>
+        <v>0.94871794871794868</v>
       </c>
       <c r="J56">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="K56">
-        <v>0.8033063427800271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>0.80330634278002711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2718,31 +2738,31 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <v>0.8025974025974026</v>
+        <v>0.80259740259740264</v>
       </c>
       <c r="E57">
-        <v>0.8240740740740741</v>
+        <v>0.82407407407407407</v>
       </c>
       <c r="F57" t="s">
         <v>66</v>
       </c>
       <c r="G57">
-        <v>0.8025974025974026</v>
+        <v>0.80259740259740264</v>
       </c>
       <c r="H57">
-        <v>0.7355371900826446</v>
+        <v>0.73553719008264462</v>
       </c>
       <c r="I57">
-        <v>0.9368421052631579</v>
+        <v>0.93684210526315792</v>
       </c>
       <c r="J57">
-        <v>0.6717948717948717</v>
+        <v>0.67179487179487174</v>
       </c>
       <c r="K57">
-        <v>0.8043184885290149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>0.80431848852901489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2753,31 +2773,31 @@
         <v>10</v>
       </c>
       <c r="D58">
-        <v>0.7818181818181819</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="E58">
-        <v>0.8181818181818181</v>
+        <v>0.81818181818181812</v>
       </c>
       <c r="F58" t="s">
         <v>67</v>
       </c>
       <c r="G58">
-        <v>0.7818181818181819</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="H58">
-        <v>0.7241379310344828</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="I58">
-        <v>0.9402985074626866</v>
+        <v>0.94029850746268662</v>
       </c>
       <c r="J58">
-        <v>0.6086956521739131</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="K58">
-        <v>0.7744970798182998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>0.77449707981829985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2788,31 +2808,31 @@
         <v>10</v>
       </c>
       <c r="D59">
-        <v>0.7792207792207793</v>
+        <v>0.77922077922077926</v>
       </c>
       <c r="E59">
-        <v>0.8063781321184511</v>
+        <v>0.80637813211845111</v>
       </c>
       <c r="F59" t="s">
         <v>68</v>
       </c>
       <c r="G59">
-        <v>0.7792207792207793</v>
+        <v>0.77922077922077926</v>
       </c>
       <c r="H59">
-        <v>0.7283950617283951</v>
+        <v>0.72839506172839508</v>
       </c>
       <c r="I59">
-        <v>0.9030612244897959</v>
+        <v>0.90306122448979587</v>
       </c>
       <c r="J59">
-        <v>0.6507936507936508</v>
+        <v>0.65079365079365081</v>
       </c>
       <c r="K59">
-        <v>0.7769274376417233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>0.77692743764172334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2823,31 +2843,31 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>0.7792207792207793</v>
+        <v>0.77922077922077926</v>
       </c>
       <c r="E60">
-        <v>0.8027842227378189</v>
+        <v>0.80278422273781891</v>
       </c>
       <c r="F60" t="s">
         <v>69</v>
       </c>
       <c r="G60">
-        <v>0.7792207792207793</v>
+        <v>0.77922077922077926</v>
       </c>
       <c r="H60">
-        <v>0.7061224489795919</v>
+        <v>0.70612244897959187</v>
       </c>
       <c r="I60">
-        <v>0.9301075268817204</v>
+        <v>0.93010752688172038</v>
       </c>
       <c r="J60">
-        <v>0.6381909547738693</v>
+        <v>0.63819095477386933</v>
       </c>
       <c r="K60">
-        <v>0.7841492408277949</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>0.78414924082779491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2858,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <v>0.8051948051948052</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="E61">
         <v>0.8351648351648352</v>
@@ -2867,22 +2887,22 @@
         <v>70</v>
       </c>
       <c r="G61">
-        <v>0.8051948051948052</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="H61">
-        <v>0.7630522088353414</v>
+        <v>0.76305220883534142</v>
       </c>
       <c r="I61">
-        <v>0.9223300970873787</v>
+        <v>0.92233009708737868</v>
       </c>
       <c r="J61">
-        <v>0.6703910614525139</v>
+        <v>0.67039106145251393</v>
       </c>
       <c r="K61">
-        <v>0.7963605792699462</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>0.79636057926994619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2893,31 +2913,31 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>0.7572815533980582</v>
+        <v>0.75728155339805825</v>
       </c>
       <c r="E62">
-        <v>0.7826086956521739</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="F62" t="s">
         <v>71</v>
       </c>
       <c r="G62">
-        <v>0.7572815533980582</v>
+        <v>0.75728155339805825</v>
       </c>
       <c r="H62">
-        <v>0.6887755102040817</v>
+        <v>0.68877551020408168</v>
       </c>
       <c r="I62">
-        <v>0.9060402684563759</v>
+        <v>0.90604026845637586</v>
       </c>
       <c r="J62">
-        <v>0.61875</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="K62">
-        <v>0.7623951342281879</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>0.76239513422818794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2928,31 +2948,31 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>0.7864077669902912</v>
+        <v>0.78640776699029125</v>
       </c>
       <c r="E63">
-        <v>0.8263157894736842</v>
+        <v>0.82631578947368423</v>
       </c>
       <c r="F63" t="s">
         <v>72</v>
       </c>
       <c r="G63">
-        <v>0.7864077669902912</v>
+        <v>0.78640776699029125</v>
       </c>
       <c r="H63">
-        <v>0.7302325581395349</v>
+        <v>0.73023255813953492</v>
       </c>
       <c r="I63">
-        <v>0.9515151515151515</v>
+        <v>0.95151515151515154</v>
       </c>
       <c r="J63">
-        <v>0.5972222222222222</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="K63">
-        <v>0.774368686868687</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>0.77436868686868698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2966,7 +2986,7 @@
         <v>0.7508090614886731</v>
       </c>
       <c r="E64">
-        <v>0.7913279132791328</v>
+        <v>0.79132791327913277</v>
       </c>
       <c r="F64" t="s">
         <v>73</v>
@@ -2975,19 +2995,19 @@
         <v>0.7508090614886731</v>
       </c>
       <c r="H64">
-        <v>0.6886792452830188</v>
+        <v>0.68867924528301883</v>
       </c>
       <c r="I64">
-        <v>0.9299363057324841</v>
+        <v>0.92993630573248409</v>
       </c>
       <c r="J64">
-        <v>0.5657894736842105</v>
+        <v>0.56578947368421051</v>
       </c>
       <c r="K64">
-        <v>0.7478628897083472</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>0.74786288970834724</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3001,7 +3021,7 @@
         <v>0.7799352750809061</v>
       </c>
       <c r="E65">
-        <v>0.8100558659217876</v>
+        <v>0.81005586592178758</v>
       </c>
       <c r="F65" t="s">
         <v>74</v>
@@ -3010,19 +3030,19 @@
         <v>0.7799352750809061</v>
       </c>
       <c r="H65">
-        <v>0.7073170731707317</v>
+        <v>0.70731707317073167</v>
       </c>
       <c r="I65">
-        <v>0.9477124183006536</v>
+        <v>0.94771241830065356</v>
       </c>
       <c r="J65">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="K65">
-        <v>0.7815485168426345</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>0.78154851684263449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3036,7 +3056,7 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="E66">
-        <v>0.8135593220338982</v>
+        <v>0.81355932203389825</v>
       </c>
       <c r="F66" t="s">
         <v>75</v>
@@ -3048,16 +3068,16 @@
         <v>0.72</v>
       </c>
       <c r="I66">
-        <v>0.935064935064935</v>
+        <v>0.93506493506493504</v>
       </c>
       <c r="J66">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="K66">
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3068,31 +3088,31 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>0.8246753246753247</v>
+        <v>0.82467532467532467</v>
       </c>
       <c r="E67">
-        <v>0.8491620111731845</v>
+        <v>0.84916201117318446</v>
       </c>
       <c r="F67" t="s">
         <v>76</v>
       </c>
       <c r="G67">
-        <v>0.8246753246753247</v>
+        <v>0.82467532467532467</v>
       </c>
       <c r="H67">
-        <v>0.7794871794871795</v>
+        <v>0.77948717948717949</v>
       </c>
       <c r="I67">
-        <v>0.9325153374233128</v>
+        <v>0.93251533742331283</v>
       </c>
       <c r="J67">
-        <v>0.7034482758620689</v>
+        <v>0.70344827586206893</v>
       </c>
       <c r="K67">
-        <v>0.8179818066426909</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>0.81798180664269093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3103,31 +3123,31 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>0.775974025974026</v>
+        <v>0.77597402597402598</v>
       </c>
       <c r="E68">
-        <v>0.8034188034188036</v>
+        <v>0.80341880341880356</v>
       </c>
       <c r="F68" t="s">
         <v>77</v>
       </c>
       <c r="G68">
-        <v>0.775974025974026</v>
+        <v>0.77597402597402598</v>
       </c>
       <c r="H68">
-        <v>0.6844660194174758</v>
+        <v>0.68446601941747576</v>
       </c>
       <c r="I68">
-        <v>0.9724137931034482</v>
+        <v>0.97241379310344822</v>
       </c>
       <c r="J68">
-        <v>0.6012269938650306</v>
+        <v>0.60122699386503065</v>
       </c>
       <c r="K68">
-        <v>0.7868203934842395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>0.78682039348423949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3138,31 +3158,31 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <v>0.775974025974026</v>
+        <v>0.77597402597402598</v>
       </c>
       <c r="E69">
-        <v>0.7952522255192878</v>
+        <v>0.79525222551928776</v>
       </c>
       <c r="F69" t="s">
         <v>78</v>
       </c>
       <c r="G69">
-        <v>0.775974025974026</v>
+        <v>0.77597402597402598</v>
       </c>
       <c r="H69">
-        <v>0.6802030456852792</v>
+        <v>0.68020304568527923</v>
       </c>
       <c r="I69">
-        <v>0.9571428571428572</v>
+        <v>0.95714285714285718</v>
       </c>
       <c r="J69">
         <v>0.625</v>
       </c>
       <c r="K69">
-        <v>0.7910714285714286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>0.79107142857142865</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3173,31 +3193,31 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <v>0.7922077922077922</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="E70">
-        <v>0.8128654970760235</v>
+        <v>0.81286549707602351</v>
       </c>
       <c r="F70" t="s">
         <v>79</v>
       </c>
       <c r="G70">
-        <v>0.7922077922077922</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="H70">
-        <v>0.7239583333333334</v>
+        <v>0.72395833333333337</v>
       </c>
       <c r="I70">
-        <v>0.9266666666666666</v>
+        <v>0.92666666666666664</v>
       </c>
       <c r="J70">
-        <v>0.6645569620253164</v>
+        <v>0.66455696202531644</v>
       </c>
       <c r="K70">
         <v>0.7956118143459916</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3208,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>0.762987012987013</v>
+        <v>0.76298701298701299</v>
       </c>
       <c r="E71">
         <v>0.7871720116618075</v>
@@ -3217,22 +3237,22 @@
         <v>80</v>
       </c>
       <c r="G71">
-        <v>0.762987012987013</v>
+        <v>0.76298701298701299</v>
       </c>
       <c r="H71">
-        <v>0.6958762886597938</v>
+        <v>0.69587628865979378</v>
       </c>
       <c r="I71">
-        <v>0.9060402684563759</v>
+        <v>0.90604026845637586</v>
       </c>
       <c r="J71">
-        <v>0.6289308176100629</v>
+        <v>0.62893081761006286</v>
       </c>
       <c r="K71">
-        <v>0.7674855430332194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>0.76748554303321936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3243,31 +3263,31 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <v>0.7954545454545454</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="E72">
-        <v>0.8254847645429363</v>
+        <v>0.82548476454293629</v>
       </c>
       <c r="F72" t="s">
         <v>81</v>
       </c>
       <c r="G72">
-        <v>0.7954545454545454</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="H72">
-        <v>0.7376237623762376</v>
+        <v>0.73762376237623761</v>
       </c>
       <c r="I72">
-        <v>0.9371069182389937</v>
+        <v>0.93710691823899372</v>
       </c>
       <c r="J72">
-        <v>0.6442953020134228</v>
+        <v>0.64429530201342278</v>
       </c>
       <c r="K72">
-        <v>0.7907011101262081</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>0.79070111012620814</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3278,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>0.775974025974026</v>
+        <v>0.77597402597402598</v>
       </c>
       <c r="E73">
         <v>0.8</v>
@@ -3287,22 +3307,22 @@
         <v>82</v>
       </c>
       <c r="G73">
-        <v>0.775974025974026</v>
+        <v>0.77597402597402598</v>
       </c>
       <c r="H73">
-        <v>0.6934673366834171</v>
+        <v>0.69346733668341709</v>
       </c>
       <c r="I73">
         <v>0.9452054794520548</v>
       </c>
       <c r="J73">
-        <v>0.6234567901234568</v>
+        <v>0.62345679012345678</v>
       </c>
       <c r="K73">
-        <v>0.7843311347877558</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>0.78433113478775585</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3313,31 +3333,31 @@
         <v>10</v>
       </c>
       <c r="D74">
-        <v>0.8279220779220779</v>
+        <v>0.82792207792207795</v>
       </c>
       <c r="E74">
-        <v>0.8531855955678669</v>
+        <v>0.85318559556786688</v>
       </c>
       <c r="F74" t="s">
         <v>83</v>
       </c>
       <c r="G74">
-        <v>0.8279220779220779</v>
+        <v>0.82792207792207795</v>
       </c>
       <c r="H74">
         <v>0.7857142857142857</v>
       </c>
       <c r="I74">
-        <v>0.9333333333333333</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="J74">
-        <v>0.7062937062937062</v>
+        <v>0.70629370629370625</v>
       </c>
       <c r="K74">
         <v>0.8198135198135198</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3348,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="D75">
-        <v>0.8311688311688312</v>
+        <v>0.83116883116883122</v>
       </c>
       <c r="E75">
         <v>0.8404907975460123</v>
@@ -3357,22 +3377,22 @@
         <v>84</v>
       </c>
       <c r="G75">
-        <v>0.8311688311688312</v>
+        <v>0.83116883116883122</v>
       </c>
       <c r="H75">
-        <v>0.7486338797814208</v>
+        <v>0.74863387978142082</v>
       </c>
       <c r="I75">
-        <v>0.958041958041958</v>
+        <v>0.95804195804195802</v>
       </c>
       <c r="J75">
-        <v>0.7212121212121212</v>
+        <v>0.72121212121212119</v>
       </c>
       <c r="K75">
-        <v>0.8396270396270396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>0.83962703962703955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3383,31 +3403,31 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>0.801948051948052</v>
+        <v>0.80194805194805197</v>
       </c>
       <c r="E76">
-        <v>0.8281690140845069</v>
+        <v>0.82816901408450694</v>
       </c>
       <c r="F76" t="s">
         <v>85</v>
       </c>
       <c r="G76">
-        <v>0.801948051948052</v>
+        <v>0.80194805194805197</v>
       </c>
       <c r="H76">
-        <v>0.7696335078534031</v>
+        <v>0.76963350785340312</v>
       </c>
       <c r="I76">
-        <v>0.8963414634146342</v>
+        <v>0.89634146341463417</v>
       </c>
       <c r="J76">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="K76">
-        <v>0.7953929539295393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>0.79539295392953935</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3418,31 +3438,31 @@
         <v>10</v>
       </c>
       <c r="D77">
-        <v>0.7435064935064936</v>
+        <v>0.74350649350649356</v>
       </c>
       <c r="E77">
-        <v>0.7641791044776119</v>
+        <v>0.76417910447761195</v>
       </c>
       <c r="F77" t="s">
         <v>86</v>
       </c>
       <c r="G77">
-        <v>0.7435064935064936</v>
+        <v>0.74350649350649356</v>
       </c>
       <c r="H77">
-        <v>0.6632124352331606</v>
+        <v>0.66321243523316065</v>
       </c>
       <c r="I77">
-        <v>0.9014084507042254</v>
+        <v>0.90140845070422537</v>
       </c>
       <c r="J77">
-        <v>0.6084337349397591</v>
+        <v>0.60843373493975905</v>
       </c>
       <c r="K77">
-        <v>0.7549210928219923</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>0.75492109282199227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3453,31 +3473,31 @@
         <v>10</v>
       </c>
       <c r="D78">
-        <v>0.7824675324675324</v>
+        <v>0.78246753246753242</v>
       </c>
       <c r="E78">
-        <v>0.8164383561643835</v>
+        <v>0.81643835616438354</v>
       </c>
       <c r="F78" t="s">
         <v>87</v>
       </c>
       <c r="G78">
-        <v>0.7824675324675324</v>
+        <v>0.78246753246753242</v>
       </c>
       <c r="H78">
-        <v>0.7095238095238096</v>
+        <v>0.70952380952380956</v>
       </c>
       <c r="I78">
-        <v>0.9612903225806452</v>
+        <v>0.96129032258064517</v>
       </c>
       <c r="J78">
-        <v>0.6013071895424836</v>
+        <v>0.60130718954248363</v>
       </c>
       <c r="K78">
         <v>0.7812987560615644</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3488,31 +3508,31 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <v>0.7922077922077922</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="E79">
-        <v>0.8212290502793296</v>
+        <v>0.82122905027932958</v>
       </c>
       <c r="F79" t="s">
         <v>88</v>
       </c>
       <c r="G79">
-        <v>0.7922077922077922</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="H79">
         <v>0.7277227722772277</v>
       </c>
       <c r="I79">
-        <v>0.9423076923076923</v>
+        <v>0.94230769230769229</v>
       </c>
       <c r="J79">
-        <v>0.6381578947368421</v>
+        <v>0.63815789473684215</v>
       </c>
       <c r="K79">
-        <v>0.7902327935222671</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>0.79023279352226705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3523,7 +3543,7 @@
         <v>10</v>
       </c>
       <c r="D80">
-        <v>0.7922077922077922</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="E80">
         <v>0.8202247191011236</v>
@@ -3532,7 +3552,7 @@
         <v>89</v>
       </c>
       <c r="G80">
-        <v>0.7922077922077922</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="H80">
         <v>0.73</v>
@@ -3541,13 +3561,13 @@
         <v>0.9358974358974359</v>
       </c>
       <c r="J80">
-        <v>0.6447368421052632</v>
+        <v>0.64473684210526316</v>
       </c>
       <c r="K80">
-        <v>0.7903171390013495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>0.79031713900134948</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3558,31 +3578,31 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>0.8084415584415584</v>
+        <v>0.80844155844155841</v>
       </c>
       <c r="E81">
-        <v>0.8289855072463768</v>
+        <v>0.82898550724637676</v>
       </c>
       <c r="F81" t="s">
         <v>90</v>
       </c>
       <c r="G81">
-        <v>0.8084415584415584</v>
+        <v>0.80844155844155841</v>
       </c>
       <c r="H81">
         <v>0.7409326424870466</v>
       </c>
       <c r="I81">
-        <v>0.9407894736842105</v>
+        <v>0.94078947368421051</v>
       </c>
       <c r="J81">
-        <v>0.6794871794871795</v>
+        <v>0.67948717948717952</v>
       </c>
       <c r="K81">
-        <v>0.8101383265856952</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>0.81013832658569518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3593,31 +3613,31 @@
         <v>10</v>
       </c>
       <c r="D82">
-        <v>0.8051948051948052</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="E82">
-        <v>0.8412698412698413</v>
+        <v>0.84126984126984128</v>
       </c>
       <c r="F82" t="s">
         <v>91</v>
       </c>
       <c r="G82">
-        <v>0.8051948051948052</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="H82">
-        <v>0.7535545023696683</v>
+        <v>0.75355450236966826</v>
       </c>
       <c r="I82">
-        <v>0.9520958083832335</v>
+        <v>0.95209580838323349</v>
       </c>
       <c r="J82">
-        <v>0.6312056737588653</v>
+        <v>0.63120567375886527</v>
       </c>
       <c r="K82">
-        <v>0.7916507410710495</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>0.79165074107104949</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3628,31 +3648,31 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <v>0.7305194805194806</v>
+        <v>0.73051948051948057</v>
       </c>
       <c r="E83">
-        <v>0.7551622418879056</v>
+        <v>0.75516224188790559</v>
       </c>
       <c r="F83" t="s">
         <v>92</v>
       </c>
       <c r="G83">
-        <v>0.7305194805194806</v>
+        <v>0.73051948051948057</v>
       </c>
       <c r="H83">
-        <v>0.6597938144329897</v>
+        <v>0.65979381443298968</v>
       </c>
       <c r="I83">
-        <v>0.8827586206896552</v>
+        <v>0.88275862068965516</v>
       </c>
       <c r="J83">
-        <v>0.5950920245398773</v>
+        <v>0.59509202453987731</v>
       </c>
       <c r="K83">
-        <v>0.7389253226147663</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>0.73892532261476629</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3663,31 +3683,31 @@
         <v>10</v>
       </c>
       <c r="D84">
-        <v>0.8051948051948052</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="E84">
-        <v>0.8351648351648353</v>
+        <v>0.83516483516483531</v>
       </c>
       <c r="F84" t="s">
         <v>93</v>
       </c>
       <c r="G84">
-        <v>0.8051948051948052</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="H84">
-        <v>0.7755102040816326</v>
+        <v>0.77551020408163263</v>
       </c>
       <c r="I84">
-        <v>0.9047619047619048</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="J84">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="K84">
-        <v>0.7952380952380952</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>0.79523809523809519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3698,31 +3718,31 @@
         <v>10</v>
       </c>
       <c r="D85">
-        <v>0.762987012987013</v>
+        <v>0.76298701298701299</v>
       </c>
       <c r="E85">
-        <v>0.7820895522388059</v>
+        <v>0.78208955223880594</v>
       </c>
       <c r="F85" t="s">
         <v>94</v>
       </c>
       <c r="G85">
-        <v>0.762987012987013</v>
+        <v>0.76298701298701299</v>
       </c>
       <c r="H85">
-        <v>0.6683673469387755</v>
+        <v>0.66836734693877553</v>
       </c>
       <c r="I85">
-        <v>0.9424460431654677</v>
+        <v>0.94244604316546765</v>
       </c>
       <c r="J85">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="K85">
-        <v>0.7789153292750415</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>0.77891532927504148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3733,28 +3753,28 @@
         <v>10</v>
       </c>
       <c r="D86">
-        <v>0.8246753246753247</v>
+        <v>0.82467532467532467</v>
       </c>
       <c r="E86">
-        <v>0.8532608695652174</v>
+        <v>0.85326086956521741</v>
       </c>
       <c r="F86" t="s">
         <v>95</v>
       </c>
       <c r="G86">
-        <v>0.8246753246753247</v>
+        <v>0.82467532467532467</v>
       </c>
       <c r="H86">
-        <v>0.7929292929292929</v>
+        <v>0.79292929292929293</v>
       </c>
       <c r="I86">
-        <v>0.9235294117647059</v>
+        <v>0.92352941176470593</v>
       </c>
       <c r="J86">
-        <v>0.7028985507246377</v>
+        <v>0.70289855072463769</v>
       </c>
       <c r="K86">
-        <v>0.8132139812446719</v>
+        <v>0.81321398124467192</v>
       </c>
     </row>
   </sheetData>
